--- a/Base Premier League.xlsx
+++ b/Base Premier League.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Baylon\Desktop\ITESO\9no Semestre\Modelos de Credito\Modelo-Crediticio-FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0263489-549A-455F-A2E2-D78ECB07B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EB6B6E-DB93-4CBB-9479-80DCB9655D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5EE597A8-B0E4-44CE-A8AA-C8421BED1744}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>EQUIPO</t>
   </si>
@@ -136,14 +147,21 @@
   </si>
   <si>
     <t>MALO</t>
+  </si>
+  <si>
+    <t>PRECIO DE ENTRADA</t>
+  </si>
+  <si>
+    <t>GANANCIAS ESTADIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -182,10 +200,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -501,28 +521,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5A88BB-E2F4-4D57-A13A-4834046661CB}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -563,10 +585,16 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -606,11 +634,22 @@
       <c r="M2" s="1">
         <v>52774</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3">
+        <v>44</v>
+      </c>
+      <c r="O2" s="3">
+        <f>+M2*N2*0.2</f>
+        <v>464411.2</v>
+      </c>
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q2" s="4">
+        <f>+SUM(C2:K2,O2)-SUM(L2)</f>
+        <v>376534411.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -650,11 +689,22 @@
       <c r="M3" s="1">
         <v>59776</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O21" si="0">+M3*N3*0.2</f>
+        <v>340723.20000000001</v>
+      </c>
+      <c r="P3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q21" si="1">+SUM(C3:K3,O3)-SUM(L3)</f>
+        <v>28140723.199999988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -694,11 +744,22 @@
       <c r="M4" s="1">
         <v>73150</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3">
+        <v>36</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>526680</v>
+      </c>
+      <c r="P4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4">
+        <f t="shared" si="1"/>
+        <v>-11003320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -738,11 +799,22 @@
       <c r="M5" s="1">
         <v>52134</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3">
+        <v>44</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="0"/>
+        <v>458779.2</v>
+      </c>
+      <c r="P5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q5" s="4">
+        <f t="shared" si="1"/>
+        <v>47568779.199999988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -782,11 +854,22 @@
       <c r="M6" s="1">
         <v>52998</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="3">
+        <v>9</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>95396.400000000009</v>
+      </c>
+      <c r="P6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6" s="4">
+        <f t="shared" si="1"/>
+        <v>175005396.39999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -826,11 +909,22 @@
       <c r="M7" s="1">
         <v>30943</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>185658</v>
+      </c>
+      <c r="P7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q7" s="4">
+        <f t="shared" si="1"/>
+        <v>261985658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -870,11 +964,22 @@
       <c r="M8" s="1">
         <v>41681</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="3">
+        <v>40.5</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>337616.10000000003</v>
+      </c>
+      <c r="P8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q8" s="4">
+        <f t="shared" si="1"/>
+        <v>143397616.09999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -914,11 +1019,22 @@
       <c r="M9" s="1">
         <v>56523</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="3">
+        <v>37</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>418270.2</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q9" s="4">
+        <f t="shared" si="1"/>
+        <v>95468270.199999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -958,11 +1074,22 @@
       <c r="M10" s="1">
         <v>16912</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="3">
+        <v>30</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>101472</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q10" s="4">
+        <f t="shared" si="1"/>
+        <v>126851472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1002,11 +1129,22 @@
       <c r="M11" s="1">
         <v>19896</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>139272</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="1"/>
+        <v>283839272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1046,11 +1184,22 @@
       <c r="M12" s="1">
         <v>24282</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="3">
+        <v>42</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="0"/>
+        <v>203968.80000000002</v>
+      </c>
+      <c r="P12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q12" s="4">
+        <f t="shared" si="1"/>
+        <v>123663968.80000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1090,11 +1239,22 @@
       <c r="M13" s="1">
         <v>37812</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="3">
+        <v>25</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>189060</v>
+      </c>
+      <c r="P13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q13" s="4">
+        <f t="shared" si="1"/>
+        <v>-305200940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1134,11 +1294,22 @@
       <c r="M14" s="1">
         <v>30765</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="3">
+        <v>35</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="0"/>
+        <v>215355</v>
+      </c>
+      <c r="P14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q14" s="4">
+        <f t="shared" si="1"/>
+        <v>45775355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1178,11 +1349,22 @@
       <c r="M15" s="1">
         <v>62447</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="3">
+        <v>30</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="0"/>
+        <v>374682</v>
+      </c>
+      <c r="P15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q15" s="4">
+        <f t="shared" si="1"/>
+        <v>15724682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1222,11 +1404,22 @@
       <c r="M16" s="1">
         <v>11189</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="3">
+        <v>28</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="0"/>
+        <v>62658.400000000001</v>
+      </c>
+      <c r="P16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q16" s="4">
+        <f t="shared" si="1"/>
+        <v>238562658.39999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1266,11 +1459,22 @@
       <c r="M17" s="1">
         <v>28000</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="3">
+        <v>38</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="0"/>
+        <v>212800</v>
+      </c>
+      <c r="P17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q17" s="4">
+        <f t="shared" si="1"/>
+        <v>138562800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1310,11 +1514,22 @@
       <c r="M18" s="1">
         <v>38968</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="3">
+        <v>55</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="0"/>
+        <v>428648</v>
+      </c>
+      <c r="P18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4">
+        <f t="shared" si="1"/>
+        <v>204028648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1354,11 +1569,22 @@
       <c r="M19" s="1">
         <v>31941</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="3">
+        <v>30</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="0"/>
+        <v>191646</v>
+      </c>
+      <c r="P19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q19" s="4">
+        <f t="shared" si="1"/>
+        <v>199391646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1398,11 +1624,22 @@
       <c r="M20" s="1">
         <v>36308</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="3">
+        <v>25</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="0"/>
+        <v>181540</v>
+      </c>
+      <c r="P20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q20" s="4">
+        <f t="shared" si="1"/>
+        <v>107691540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1442,8 +1679,19 @@
       <c r="M21" s="1">
         <v>29939</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="3">
+        <v>20</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="0"/>
+        <v>119756</v>
+      </c>
+      <c r="P21" t="s">
         <v>36</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="1"/>
+        <v>-4490244</v>
       </c>
     </row>
   </sheetData>
